--- a/data/trans_orig/P76_P_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2754915-C299-417A-BD2E-56DB0E637E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09538D2-97C0-437A-A575-54896DD1AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A77CB619-DB82-45DD-92A8-D2AB5B22FAA3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{446F1A93-26B4-4A2D-BB1C-5D57831C55F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="353">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -92,28 +92,28 @@
     <t>49,0%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>58,36%</t>
   </si>
   <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>Trabajadores manuales semicualificados</t>
@@ -122,28 +122,28 @@
     <t>15,88%</t>
   </si>
   <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>9,48%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>Trabajadores manuales cualificados</t>
@@ -152,28 +152,28 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>19,63%</t>
   </si>
   <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
@@ -182,28 +182,28 @@
     <t>8,29%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
@@ -212,856 +212,868 @@
     <t>0,67%</t>
   </si>
   <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>28,43%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>31,69%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>2,35%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -1070,13 +1082,16 @@
     <t>0,88%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1491,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCDC644-C755-49B4-8B0E-F76E4538551D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA4DE6B-D92B-41F3-91BB-A8EA17A8E1DB}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2046,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -2055,13 +2070,13 @@
         <v>3768</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2091,13 @@
         <v>301134</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -2091,13 +2106,13 @@
         <v>276046</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>548</v>
@@ -2106,10 +2121,10 @@
         <v>577180</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>84</v>
@@ -2295,13 +2310,13 @@
         <v>5629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2310,10 +2325,10 @@
         <v>18207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>118</v>
@@ -2364,10 +2379,10 @@
         <v>123</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,7 +2438,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2441,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2456,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2471,7 +2486,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2501,13 @@
         <v>454234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>441</v>
@@ -2501,13 +2516,13 @@
         <v>483690</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>857</v>
@@ -2516,7 +2531,7 @@
         <v>937924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>135</v>
@@ -2555,10 +2570,10 @@
         <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -2567,13 +2582,13 @@
         <v>249756</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2603,13 @@
         <v>263527</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -2603,13 +2618,13 @@
         <v>254160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
         <v>482</v>
@@ -2618,13 +2633,13 @@
         <v>517687</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2654,13 @@
         <v>126278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -2654,13 +2669,13 @@
         <v>90213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
         <v>195</v>
@@ -2669,13 +2684,13 @@
         <v>216491</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2705,13 @@
         <v>25499</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2705,13 +2720,13 @@
         <v>23010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -2720,13 +2735,13 @@
         <v>48509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2756,13 @@
         <v>13655</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2756,13 +2771,13 @@
         <v>12942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2771,13 +2786,13 @@
         <v>26597</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,7 +2848,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2845,13 +2860,13 @@
         <v>1934</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2860,13 +2875,13 @@
         <v>2126</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2875,13 +2890,13 @@
         <v>4060</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2911,13 @@
         <v>277252</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>295</v>
@@ -2911,13 +2926,13 @@
         <v>318450</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>553</v>
@@ -2926,13 +2941,13 @@
         <v>595702</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2962,13 @@
         <v>65156</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -2962,13 +2977,13 @@
         <v>90816</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>143</v>
@@ -2977,13 +2992,13 @@
         <v>155972</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3013,13 @@
         <v>235243</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>190</v>
@@ -3013,13 +3028,13 @@
         <v>207402</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>403</v>
@@ -3028,13 +3043,13 @@
         <v>442645</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3064,13 @@
         <v>105601</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -3064,13 +3079,13 @@
         <v>106959</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>185</v>
@@ -3079,13 +3094,13 @@
         <v>212560</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3115,13 @@
         <v>34723</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -3115,13 +3130,13 @@
         <v>22354</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -3130,13 +3145,13 @@
         <v>57078</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3166,13 @@
         <v>11429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3166,13 +3181,13 @@
         <v>1984</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -3181,13 +3196,13 @@
         <v>13413</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3258,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3255,13 +3270,13 @@
         <v>1036</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3270,13 +3285,13 @@
         <v>986</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3285,13 +3300,13 @@
         <v>2022</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3321,13 @@
         <v>194252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>250</v>
@@ -3321,13 +3336,13 @@
         <v>256620</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>439</v>
@@ -3336,13 +3351,13 @@
         <v>450872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3372,13 @@
         <v>137702</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="H38" s="7">
         <v>157</v>
@@ -3372,13 +3387,13 @@
         <v>164400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M38" s="7">
         <v>286</v>
@@ -3387,13 +3402,13 @@
         <v>302102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3423,13 @@
         <v>347418</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>350</v>
@@ -3423,13 +3438,13 @@
         <v>365890</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>694</v>
@@ -3438,13 +3453,13 @@
         <v>713308</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3474,13 @@
         <v>177957</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>143</v>
@@ -3474,13 +3489,13 @@
         <v>154163</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
         <v>305</v>
@@ -3489,13 +3504,13 @@
         <v>332120</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,13 +3525,13 @@
         <v>50370</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>45</v>
@@ -3525,13 +3540,13 @@
         <v>46411</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>92</v>
@@ -3540,13 +3555,13 @@
         <v>96781</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3576,13 @@
         <v>15183</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
@@ -3576,13 +3591,13 @@
         <v>23164</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>35</v>
@@ -3591,13 +3606,13 @@
         <v>38347</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3680,13 @@
         <v>4032</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -3680,13 +3695,13 @@
         <v>5818</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -3695,13 +3710,13 @@
         <v>9850</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,28 +3731,28 @@
         <v>1281539</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>1308</v>
       </c>
       <c r="I45" s="7">
-        <v>1399516</v>
+        <v>1399517</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>2513</v>
@@ -3746,13 +3761,13 @@
         <v>2681055</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P45" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="Q45" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3782,13 @@
         <v>404012</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>440</v>
@@ -3782,13 +3797,13 @@
         <v>473341</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>824</v>
@@ -3797,13 +3812,13 @@
         <v>877353</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,28 +3833,28 @@
         <v>1008281</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>934</v>
       </c>
       <c r="I47" s="7">
-        <v>1002597</v>
+        <v>1002598</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>1892</v>
@@ -3848,13 +3863,13 @@
         <v>2010878</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,13 +3884,13 @@
         <v>476262</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H48" s="7">
         <v>376</v>
@@ -3884,13 +3899,13 @@
         <v>414566</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M48" s="7">
         <v>804</v>
@@ -3899,13 +3914,13 @@
         <v>890828</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3935,13 @@
         <v>123923</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H49" s="7">
         <v>88</v>
@@ -3935,13 +3950,13 @@
         <v>97404</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>114</v>
+        <v>342</v>
       </c>
       <c r="M49" s="7">
         <v>200</v>
@@ -3950,13 +3965,13 @@
         <v>221328</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>340</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3986,13 @@
         <v>45389</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H50" s="7">
         <v>36</v>
@@ -3986,13 +4001,13 @@
         <v>43084</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="M50" s="7">
         <v>75</v>
@@ -4001,13 +4016,13 @@
         <v>88473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,7 +4049,7 @@
         <v>3187</v>
       </c>
       <c r="I51" s="7">
-        <v>3436326</v>
+        <v>3436327</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>68</v>
@@ -4063,7 +4078,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_P_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P76_P_2012-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E09538D2-97C0-437A-A575-54896DD1AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{821E6F80-4526-438B-8600-796EBD12178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{446F1A93-26B4-4A2D-BB1C-5D57831C55F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DBAC3E9-0CAC-4E60-8021-E2966E472694}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="344">
   <si>
     <t>Población según era la situación laboral de su padre cuando tenía 12 años en 2012 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No trabajaba</t>
@@ -92,976 +92,955 @@
     <t>49,0%</t>
   </si>
   <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
   </si>
   <si>
     <t>58,36%</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
   </si>
   <si>
     <t>53,67%</t>
   </si>
   <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
     <t>46,97%</t>
   </si>
   <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>3,46%</t>
@@ -1070,28 +1049,22 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
     <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1506,7 +1479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA4DE6B-D92B-41F3-91BB-A8EA17A8E1DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD27AFBE-C156-4A6A-864E-3045C965D0D3}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2061,7 +2034,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -2070,13 +2043,13 @@
         <v>3768</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2064,13 @@
         <v>301134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>263</v>
@@ -2106,13 +2079,13 @@
         <v>276046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>548</v>
@@ -2121,13 +2094,13 @@
         <v>577180</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2115,13 @@
         <v>70161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>68</v>
@@ -2157,13 +2130,13 @@
         <v>71131</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>136</v>
@@ -2172,13 +2145,13 @@
         <v>141292</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2166,13 @@
         <v>133742</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>142</v>
@@ -2208,13 +2181,13 @@
         <v>153382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M15" s="7">
         <v>263</v>
@@ -2223,13 +2196,13 @@
         <v>287123</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2217,13 @@
         <v>57177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -2259,13 +2232,13 @@
         <v>50386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -2274,13 +2247,13 @@
         <v>107562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,13 +2268,13 @@
         <v>12578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2310,13 +2283,13 @@
         <v>5629</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>59</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -2325,13 +2298,13 @@
         <v>18207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,13 +2319,13 @@
         <v>4304</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2361,13 +2334,13 @@
         <v>3938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2376,13 +2349,13 @@
         <v>8243</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,7 +2411,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2456,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2471,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2486,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2474,13 @@
         <v>454234</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>441</v>
@@ -2516,13 +2489,13 @@
         <v>483690</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>857</v>
@@ -2531,13 +2504,13 @@
         <v>937924</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2525,13 @@
         <v>113276</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>126</v>
@@ -2567,13 +2540,13 @@
         <v>136480</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>232</v>
@@ -2582,13 +2555,13 @@
         <v>249756</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2576,13 @@
         <v>263527</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -2618,13 +2591,13 @@
         <v>254160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M23" s="7">
         <v>482</v>
@@ -2633,13 +2606,13 @@
         <v>517687</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2627,13 @@
         <v>126278</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>82</v>
@@ -2669,13 +2642,13 @@
         <v>90213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>195</v>
@@ -2684,13 +2657,13 @@
         <v>216491</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2678,13 @@
         <v>25499</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2720,13 +2693,13 @@
         <v>23010</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -2735,7 +2708,7 @@
         <v>48509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>171</v>
@@ -2819,7 +2792,7 @@
         <v>911</v>
       </c>
       <c r="I27" s="7">
-        <v>1000495</v>
+        <v>1000494</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>68</v>
@@ -2881,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -2890,13 +2863,13 @@
         <v>4060</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2884,13 @@
         <v>277252</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>295</v>
@@ -2926,13 +2899,13 @@
         <v>318450</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>553</v>
@@ -2941,13 +2914,13 @@
         <v>595702</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2935,13 @@
         <v>65156</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>81</v>
@@ -2977,13 +2950,13 @@
         <v>90816</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>143</v>
@@ -2992,13 +2965,13 @@
         <v>155972</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2986,13 @@
         <v>235243</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>190</v>
@@ -3028,13 +3001,13 @@
         <v>207402</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>403</v>
@@ -3043,13 +3016,13 @@
         <v>442645</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3037,13 @@
         <v>105601</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>93</v>
@@ -3079,13 +3052,13 @@
         <v>106959</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>185</v>
@@ -3094,13 +3067,13 @@
         <v>212560</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3088,13 @@
         <v>34723</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H33" s="7">
         <v>18</v>
@@ -3130,13 +3103,13 @@
         <v>22354</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M33" s="7">
         <v>47</v>
@@ -3145,13 +3118,13 @@
         <v>57078</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3139,13 @@
         <v>11429</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -3187,7 +3160,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -3196,13 +3169,13 @@
         <v>13413</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,7 +3231,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3270,13 +3243,13 @@
         <v>1036</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>57</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3285,13 +3258,13 @@
         <v>986</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3300,13 +3273,13 @@
         <v>2022</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3294,13 @@
         <v>194252</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>250</v>
@@ -3336,13 +3309,13 @@
         <v>256620</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>439</v>
@@ -3351,13 +3324,13 @@
         <v>450872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3345,13 @@
         <v>137702</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H38" s="7">
         <v>157</v>
@@ -3387,13 +3360,13 @@
         <v>164400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>286</v>
@@ -3402,13 +3375,13 @@
         <v>302102</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3396,13 @@
         <v>347418</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H39" s="7">
         <v>350</v>
@@ -3438,13 +3411,13 @@
         <v>365890</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M39" s="7">
         <v>694</v>
@@ -3453,13 +3426,13 @@
         <v>713308</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3447,13 @@
         <v>177957</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H40" s="7">
         <v>143</v>
@@ -3489,13 +3462,13 @@
         <v>154163</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="M40" s="7">
         <v>305</v>
@@ -3504,13 +3477,13 @@
         <v>332120</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3498,13 @@
         <v>50370</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H41" s="7">
         <v>45</v>
@@ -3540,13 +3513,13 @@
         <v>46411</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M41" s="7">
         <v>92</v>
@@ -3555,13 +3528,13 @@
         <v>96781</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3549,13 @@
         <v>15183</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H42" s="7">
         <v>20</v>
@@ -3591,13 +3564,13 @@
         <v>23164</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>179</v>
+        <v>286</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M42" s="7">
         <v>35</v>
@@ -3606,13 +3579,13 @@
         <v>38347</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3653,13 @@
         <v>4032</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="H44" s="7">
         <v>5</v>
@@ -3695,13 +3668,13 @@
         <v>5818</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M44" s="7">
         <v>9</v>
@@ -3710,13 +3683,13 @@
         <v>9850</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3704,13 @@
         <v>1281539</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="H45" s="7">
         <v>1308</v>
@@ -3746,28 +3719,28 @@
         <v>1399517</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M45" s="7">
         <v>2513</v>
       </c>
       <c r="N45" s="7">
-        <v>2681055</v>
+        <v>2681056</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3755,13 @@
         <v>404012</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H46" s="7">
         <v>440</v>
@@ -3797,13 +3770,13 @@
         <v>473341</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M46" s="7">
         <v>824</v>
@@ -3812,13 +3785,13 @@
         <v>877353</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3806,13 @@
         <v>1008281</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H47" s="7">
         <v>934</v>
@@ -3848,28 +3821,28 @@
         <v>1002598</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M47" s="7">
         <v>1892</v>
       </c>
       <c r="N47" s="7">
-        <v>2010878</v>
+        <v>2010879</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3857,13 @@
         <v>476262</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H48" s="7">
         <v>376</v>
@@ -3899,13 +3872,13 @@
         <v>414566</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M48" s="7">
         <v>804</v>
@@ -3914,13 +3887,13 @@
         <v>890828</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3908,13 @@
         <v>123923</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>88</v>
@@ -3950,13 +3923,13 @@
         <v>97404</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M49" s="7">
         <v>200</v>
@@ -3965,13 +3938,13 @@
         <v>221328</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>48</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3959,13 @@
         <v>45389</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>344</v>
+        <v>116</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="H50" s="7">
         <v>36</v>
@@ -4001,13 +3974,13 @@
         <v>43084</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M50" s="7">
         <v>75</v>
@@ -4016,13 +3989,13 @@
         <v>88473</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4037,7 @@
         <v>6317</v>
       </c>
       <c r="N51" s="7">
-        <v>6779765</v>
+        <v>6779766</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>68</v>
@@ -4078,7 +4051,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
